--- a/result/t14_rr/summary.xlsx
+++ b/result/t14_rr/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s13592/Documents/project/other/rae/result/t14_rr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842D94FF-088E-F14D-A8F6-8477EB0F7D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA431E4-F3E9-8D4F-A5D6-1B211B73CDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,7 +1340,7 @@
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1352,7 +1352,9 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
+      <c r="C3" s="2"/>
       <c r="D3" s="12"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="11" t="s">
